--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H2">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I2">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J2">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N2">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O2">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P2">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q2">
-        <v>370.3949812985688</v>
+        <v>390.850414575952</v>
       </c>
       <c r="R2">
-        <v>370.3949812985688</v>
+        <v>1563.401658303808</v>
       </c>
       <c r="S2">
-        <v>0.002578476988384201</v>
+        <v>0.002405599659439117</v>
       </c>
       <c r="T2">
-        <v>0.002578476988384201</v>
+        <v>0.001228992255477075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H3">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I3">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J3">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N3">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O3">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P3">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q3">
-        <v>2791.522819072142</v>
+        <v>2975.444926355352</v>
       </c>
       <c r="R3">
-        <v>2791.522819072142</v>
+        <v>17852.66955813211</v>
       </c>
       <c r="S3">
-        <v>0.01943297753736255</v>
+        <v>0.01831321916157097</v>
       </c>
       <c r="T3">
-        <v>0.01943297753736255</v>
+        <v>0.01403400879741939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H4">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I4">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J4">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N4">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O4">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P4">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q4">
-        <v>3844.541005818419</v>
+        <v>4005.744766910883</v>
       </c>
       <c r="R4">
-        <v>3844.541005818419</v>
+        <v>24034.4686014653</v>
       </c>
       <c r="S4">
-        <v>0.02676348496852742</v>
+        <v>0.02465449155922102</v>
       </c>
       <c r="T4">
-        <v>0.02676348496852742</v>
+        <v>0.01889352977132878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H5">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I5">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J5">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N5">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O5">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P5">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q5">
-        <v>338.9559395914554</v>
+        <v>362.1942943723094</v>
       </c>
       <c r="R5">
-        <v>338.9559395914554</v>
+        <v>2173.165766233856</v>
       </c>
       <c r="S5">
-        <v>0.002359616448496653</v>
+        <v>0.002229227445333833</v>
       </c>
       <c r="T5">
-        <v>0.002359616448496653</v>
+        <v>0.001708328683408822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H6">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I6">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J6">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N6">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O6">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P6">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q6">
-        <v>433.1253679761413</v>
+        <v>569.481434751792</v>
       </c>
       <c r="R6">
-        <v>433.1253679761413</v>
+        <v>2277.925739007168</v>
       </c>
       <c r="S6">
-        <v>0.003015169888362185</v>
+        <v>0.003505034904420183</v>
       </c>
       <c r="T6">
-        <v>0.003015169888362185</v>
+        <v>0.001790680646219245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H7">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I7">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J7">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N7">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O7">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P7">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q7">
-        <v>2877.421698798619</v>
+        <v>3063.510820820333</v>
       </c>
       <c r="R7">
-        <v>2877.421698798619</v>
+        <v>18381.064924922</v>
       </c>
       <c r="S7">
-        <v>0.02003095617067498</v>
+        <v>0.01885524567051815</v>
       </c>
       <c r="T7">
-        <v>0.02003095617067498</v>
+        <v>0.01444938114282121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H8">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I8">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J8">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N8">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O8">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P8">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q8">
-        <v>21686.0074726955</v>
+        <v>23321.7297173245</v>
       </c>
       <c r="R8">
-        <v>21686.0074726955</v>
+        <v>209895.5674559205</v>
       </c>
       <c r="S8">
-        <v>0.1509655207590395</v>
+        <v>0.1435401958736436</v>
       </c>
       <c r="T8">
-        <v>0.1509655207590395</v>
+        <v>0.1649992025351711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H9">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I9">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J9">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N9">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O9">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P9">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q9">
-        <v>29866.40281485296</v>
+        <v>31397.28648411405</v>
       </c>
       <c r="R9">
-        <v>29866.40281485296</v>
+        <v>282575.5783570265</v>
       </c>
       <c r="S9">
-        <v>0.2079127317382176</v>
+        <v>0.1932434989366499</v>
       </c>
       <c r="T9">
-        <v>0.2079127317382176</v>
+        <v>0.2221330619314561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H10">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I10">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J10">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N10">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O10">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P10">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q10">
-        <v>2633.186799933826</v>
+        <v>2838.902297833778</v>
       </c>
       <c r="R10">
-        <v>2633.186799933826</v>
+        <v>25550.120680504</v>
       </c>
       <c r="S10">
-        <v>0.01833073317014902</v>
+        <v>0.01747282885259104</v>
       </c>
       <c r="T10">
-        <v>0.01833073317014902</v>
+        <v>0.02008498601498995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H11">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I11">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J11">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N11">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O11">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P11">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q11">
-        <v>3364.744111125193</v>
+        <v>4463.632306777</v>
       </c>
       <c r="R11">
-        <v>3364.744111125193</v>
+        <v>26781.793840662</v>
       </c>
       <c r="S11">
-        <v>0.02342341473397033</v>
+        <v>0.02747269020731097</v>
       </c>
       <c r="T11">
-        <v>0.02342341473397033</v>
+        <v>0.02105320602874856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H12">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I12">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J12">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N12">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O12">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P12">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q12">
-        <v>1050.884530810604</v>
+        <v>1115.330140620994</v>
       </c>
       <c r="R12">
-        <v>1050.884530810604</v>
+        <v>6691.980843725964</v>
       </c>
       <c r="S12">
-        <v>0.007315654144784008</v>
+        <v>0.00686461548045426</v>
       </c>
       <c r="T12">
-        <v>0.007315654144784008</v>
+        <v>0.005260575608998074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H13">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I13">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J13">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N13">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O13">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P13">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q13">
-        <v>7920.107712266828</v>
+        <v>8490.725055830919</v>
       </c>
       <c r="R13">
-        <v>7920.107712266828</v>
+        <v>76416.52550247828</v>
       </c>
       <c r="S13">
-        <v>0.05513523809098965</v>
+        <v>0.05225857397351921</v>
       </c>
       <c r="T13">
-        <v>0.05513523809098965</v>
+        <v>0.06007113881080592</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H14">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I14">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J14">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N14">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O14">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P14">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q14">
-        <v>10907.73059860903</v>
+        <v>11430.78709285169</v>
       </c>
       <c r="R14">
-        <v>10907.73059860903</v>
+        <v>102877.0838356653</v>
       </c>
       <c r="S14">
-        <v>0.07593335159510778</v>
+        <v>0.07035401911372813</v>
       </c>
       <c r="T14">
-        <v>0.07593335159510778</v>
+        <v>0.08087182115264768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H15">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I15">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J15">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N15">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O15">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P15">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q15">
-        <v>961.6856910269653</v>
+        <v>1033.557080175205</v>
       </c>
       <c r="R15">
-        <v>961.6856910269653</v>
+        <v>9302.013721576848</v>
       </c>
       <c r="S15">
-        <v>0.006694703086088953</v>
+        <v>0.006361320002123748</v>
       </c>
       <c r="T15">
-        <v>0.006694703086088953</v>
+        <v>0.0073123261469241</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H16">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I16">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J16">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N16">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O16">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P16">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q16">
-        <v>1228.86316524056</v>
+        <v>1625.071344472974</v>
       </c>
       <c r="R16">
-        <v>1228.86316524056</v>
+        <v>9750.428066837845</v>
       </c>
       <c r="S16">
-        <v>0.008554639110759463</v>
+        <v>0.01000196220098619</v>
       </c>
       <c r="T16">
-        <v>0.008554639110759463</v>
+        <v>0.007664825298145734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H17">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I17">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J17">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N17">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O17">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P17">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q17">
-        <v>916.6740636530002</v>
+        <v>1000.801038722685</v>
       </c>
       <c r="R17">
-        <v>916.6740636530002</v>
+        <v>6004.806232336112</v>
       </c>
       <c r="S17">
-        <v>0.006381358005152399</v>
+        <v>0.006159713660607525</v>
       </c>
       <c r="T17">
-        <v>0.006381358005152399</v>
+        <v>0.004720386674776997</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H18">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I18">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J18">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N18">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O18">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P18">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q18">
-        <v>6908.615655016777</v>
+        <v>7618.844094586252</v>
       </c>
       <c r="R18">
-        <v>6908.615655016777</v>
+        <v>68569.59685127626</v>
       </c>
       <c r="S18">
-        <v>0.04809381170770315</v>
+        <v>0.04689233547095253</v>
       </c>
       <c r="T18">
-        <v>0.04809381170770315</v>
+        <v>0.05390265709634274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H19">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I19">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J19">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N19">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O19">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P19">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q19">
-        <v>9514.683526025896</v>
+        <v>10257.00210125614</v>
       </c>
       <c r="R19">
-        <v>9514.683526025896</v>
+        <v>92313.01891130525</v>
       </c>
       <c r="S19">
-        <v>0.0662357584803237</v>
+        <v>0.0631296266844646</v>
       </c>
       <c r="T19">
-        <v>0.0662357584803237</v>
+        <v>0.0725673947696788</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H20">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I20">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J20">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N20">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O20">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P20">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q20">
-        <v>838.8669777740881</v>
+        <v>927.4249495692872</v>
       </c>
       <c r="R20">
-        <v>838.8669777740881</v>
+        <v>8346.824546123584</v>
       </c>
       <c r="S20">
-        <v>0.005839709790134364</v>
+        <v>0.005708099722139801</v>
       </c>
       <c r="T20">
-        <v>0.005839709790134364</v>
+        <v>0.00656145058470855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H21">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I21">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J21">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N21">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O21">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P21">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q21">
-        <v>1071.922707326987</v>
+        <v>1458.198815143192</v>
       </c>
       <c r="R21">
-        <v>1071.922707326987</v>
+        <v>8749.192890859151</v>
       </c>
       <c r="S21">
-        <v>0.007462109838743129</v>
+        <v>0.008974897920752557</v>
       </c>
       <c r="T21">
-        <v>0.007462109838743129</v>
+        <v>0.006877752909771741</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H22">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I22">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J22">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N22">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O22">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P22">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q22">
-        <v>257.8747710705564</v>
+        <v>284.403987114026</v>
       </c>
       <c r="R22">
-        <v>257.8747710705564</v>
+        <v>1706.423922684156</v>
       </c>
       <c r="S22">
-        <v>0.001795175951788315</v>
+        <v>0.001750444950370337</v>
       </c>
       <c r="T22">
-        <v>0.001795175951788315</v>
+        <v>0.001341422259852883</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H23">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I23">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J23">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N23">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O23">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P23">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q23">
-        <v>1943.501786613555</v>
+        <v>2165.095312516851</v>
       </c>
       <c r="R23">
-        <v>1943.501786613555</v>
+        <v>19485.85781265166</v>
       </c>
       <c r="S23">
-        <v>0.0135295424794839</v>
+        <v>0.0133256927771063</v>
       </c>
       <c r="T23">
-        <v>0.0135295424794839</v>
+        <v>0.01531786039491501</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H24">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I24">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J24">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N24">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O24">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P24">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q24">
-        <v>2676.629495008285</v>
+        <v>2914.797427825717</v>
       </c>
       <c r="R24">
-        <v>2676.629495008285</v>
+        <v>26233.17685043145</v>
       </c>
       <c r="S24">
-        <v>0.01863315624610477</v>
+        <v>0.01793994694189836</v>
       </c>
       <c r="T24">
-        <v>0.01863315624610477</v>
+        <v>0.0206219374365507</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H25">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I25">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J25">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N25">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O25">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P25">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q25">
-        <v>235.9864191968998</v>
+        <v>263.5522378585547</v>
       </c>
       <c r="R25">
-        <v>235.9864191968998</v>
+        <v>2371.970140726992</v>
       </c>
       <c r="S25">
-        <v>0.001642801825600073</v>
+        <v>0.001622106949342263</v>
       </c>
       <c r="T25">
-        <v>0.001642801825600073</v>
+        <v>0.001864609083464243</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H26">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I26">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J26">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N26">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O26">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P26">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q26">
-        <v>301.548646042979</v>
+        <v>414.385618105446</v>
       </c>
       <c r="R26">
-        <v>301.548646042979</v>
+        <v>2486.313708632676</v>
       </c>
       <c r="S26">
-        <v>0.002099208369331213</v>
+        <v>0.002550453740396933</v>
       </c>
       <c r="T26">
-        <v>0.002099208369331213</v>
+        <v>0.001954494723966995</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H27">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I27">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J27">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N27">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O27">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P27">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q27">
-        <v>1366.950446863348</v>
+        <v>1792.706364196326</v>
       </c>
       <c r="R27">
-        <v>1366.950446863348</v>
+        <v>7170.825456785305</v>
       </c>
       <c r="S27">
-        <v>0.00951592340463567</v>
+        <v>0.01103371944446789</v>
       </c>
       <c r="T27">
-        <v>0.00951592340463567</v>
+        <v>0.005636996036788413</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H28">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I28">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J28">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N28">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O28">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P28">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q28">
-        <v>10302.17351104979</v>
+        <v>13647.4181857529</v>
       </c>
       <c r="R28">
-        <v>10302.17351104979</v>
+        <v>81884.50911451741</v>
       </c>
       <c r="S28">
-        <v>0.07171781117404082</v>
+        <v>0.08399690345854977</v>
       </c>
       <c r="T28">
-        <v>0.07171781117404082</v>
+        <v>0.06436952846427638</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H29">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I29">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J29">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N29">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O29">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P29">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q29">
-        <v>14188.35921443479</v>
+        <v>18373.07539964703</v>
       </c>
       <c r="R29">
-        <v>14188.35921443479</v>
+        <v>110238.4523978822</v>
       </c>
       <c r="S29">
-        <v>0.09877120259320969</v>
+        <v>0.1130823002252472</v>
       </c>
       <c r="T29">
-        <v>0.09877120259320969</v>
+        <v>0.08665860339419433</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H30">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I30">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J30">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N30">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O30">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P30">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q30">
-        <v>1250.924004064836</v>
+        <v>1661.269867914288</v>
       </c>
       <c r="R30">
-        <v>1250.924004064836</v>
+        <v>9967.619207485728</v>
       </c>
       <c r="S30">
-        <v>0.008708213991967143</v>
+        <v>0.01022475627364209</v>
       </c>
       <c r="T30">
-        <v>0.008708213991967143</v>
+        <v>0.007835559561088808</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H31">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I31">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J31">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N31">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O31">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P31">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q31">
-        <v>1598.45825455607</v>
+        <v>2612.029959028746</v>
       </c>
       <c r="R31">
-        <v>1598.45825455607</v>
+        <v>10448.11983611499</v>
       </c>
       <c r="S31">
-        <v>0.01112754771086723</v>
+        <v>0.01607647873855148</v>
       </c>
       <c r="T31">
-        <v>0.01112754771086723</v>
+        <v>0.008213281785061572</v>
       </c>
     </row>
   </sheetData>
